--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK06002_ユーザー登録・編集.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK06002_ユーザー登録・編集.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -168,6 +168,54 @@
   </si>
   <si>
     <t>更新完了後、自画面遷移をする</t>
+  </si>
+  <si>
+    <t>初期表示の際、ロケーションコードの値は表示されていない</t>
+  </si>
+  <si>
+    <t>取引先を選択した際に、取引先に該当するロケーションコードの値が取得できる</t>
+  </si>
+  <si>
+    <t>取引先を再選択した際に、前回の値が削除されている</t>
+  </si>
+  <si>
+    <t>登録の際、サイト情報の値が全て入力されていない場合、エラーメッセージを出力する</t>
+  </si>
+  <si>
+    <t>登録の際、サイト情報の入社時間より退社時間が遅い場合、エラーメッセージを出力する</t>
+  </si>
+  <si>
+    <t>エラーがない場合、site_infoテーブルに値を登録する</t>
+  </si>
+  <si>
+    <t>社員番号で検索した場合、ロケーションのプルダウンに値がセットされている</t>
+  </si>
+  <si>
+    <t>更新の際、サイト情報の値が全て入力されていない場合、エラーメッセージを出力する</t>
+  </si>
+  <si>
+    <t>更新の際、サイト情報の入社時間より退社時間が遅い場合、エラーメッセージを出力する</t>
+  </si>
+  <si>
+    <t>エラーがない場合、site_infoテーブルに値を更新する</t>
+  </si>
+  <si>
+    <t>ユニット情報は片方に値が登録されていたら、エラーメッセージを出力する</t>
+  </si>
+  <si>
+    <t>社員番号で検索した場合、ユニット情報のプルダウンに値がセットされている</t>
+  </si>
+  <si>
+    <t>登録時エラーがない場合、unit_infoテーブルに値を登録する</t>
+  </si>
+  <si>
+    <t>更新時エラーが無い場合、unit_infoテーブルに値を更新する</t>
+  </si>
+  <si>
+    <t>エラーメッセージ出力後、自画面遷移をするが値が保持されている</t>
+  </si>
+  <si>
+    <t>登録、更新完了後値を全て削除して、自画面遷移している</t>
   </si>
   <si>
     <t>木村靖二</t>
@@ -241,7 +289,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="13"/>
+      <color indexed="12"/>
       <name val="Meiryo UI"/>
     </font>
   </fonts>
@@ -266,7 +314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -299,11 +347,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -312,7 +360,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -320,17 +368,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -347,7 +395,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -355,12 +403,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -369,18 +428,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -390,7 +438,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -421,7 +469,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -451,7 +499,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -470,7 +518,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
@@ -495,7 +543,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -540,7 +588,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,7 +600,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -565,7 +613,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -587,28 +635,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -626,20 +674,20 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -745,6 +793,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -772,8 +829,8 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ffd9e2f3"/>
@@ -793,9 +850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2360705</xdr:colOff>
+      <xdr:colOff>2398807</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>62864</xdr:rowOff>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -804,10 +861,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="-12701" y="0"/>
-          <a:ext cx="3046507" cy="481964"/>
-          <a:chOff x="-12700" y="0"/>
-          <a:chExt cx="3046505" cy="481963"/>
+          <a:off x="-19052" y="-1"/>
+          <a:ext cx="3084608" cy="481966"/>
+          <a:chOff x="-19051" y="0"/>
+          <a:chExt cx="3084607" cy="481965"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -817,8 +874,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="0"/>
-            <a:ext cx="3021107" cy="481964"/>
+            <a:off x="12698" y="-1"/>
+            <a:ext cx="3021108" cy="481966"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -848,8 +905,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-12701" y="104426"/>
-            <a:ext cx="3046507" cy="273112"/>
+            <a:off x="-19052" y="104427"/>
+            <a:ext cx="3084608" cy="273110"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -920,15 +977,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2265454</xdr:colOff>
+      <xdr:colOff>2246403</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>30254</xdr:colOff>
+      <xdr:colOff>49304</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>62864</xdr:rowOff>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -937,10 +994,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2951254" y="0"/>
-          <a:ext cx="6807201" cy="481964"/>
-          <a:chOff x="-12700" y="0"/>
-          <a:chExt cx="6807199" cy="481963"/>
+          <a:off x="2932203" y="-1"/>
+          <a:ext cx="6845302" cy="481966"/>
+          <a:chOff x="-19050" y="0"/>
+          <a:chExt cx="6845300" cy="481965"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -950,8 +1007,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="0"/>
-            <a:ext cx="6781801" cy="481964"/>
+            <a:off x="12699" y="-1"/>
+            <a:ext cx="6781802" cy="481966"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -981,8 +1038,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-12701" y="104426"/>
-            <a:ext cx="6807201" cy="273112"/>
+            <a:off x="-19051" y="104427"/>
+            <a:ext cx="6845302" cy="273110"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1064,9 +1121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2360705</xdr:colOff>
+      <xdr:colOff>2398807</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>62864</xdr:rowOff>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1075,10 +1132,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="-12701" y="0"/>
-          <a:ext cx="3046507" cy="481964"/>
-          <a:chOff x="-12700" y="0"/>
-          <a:chExt cx="3046505" cy="481963"/>
+          <a:off x="-19052" y="-1"/>
+          <a:ext cx="3084608" cy="481966"/>
+          <a:chOff x="-19051" y="0"/>
+          <a:chExt cx="3084607" cy="481965"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1088,8 +1145,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="0"/>
-            <a:ext cx="3021107" cy="481964"/>
+            <a:off x="12698" y="-1"/>
+            <a:ext cx="3021108" cy="481966"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1119,8 +1176,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-12701" y="104426"/>
-            <a:ext cx="3046507" cy="273112"/>
+            <a:off x="-19052" y="104427"/>
+            <a:ext cx="3084608" cy="273110"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1191,15 +1248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2265454</xdr:colOff>
+      <xdr:colOff>2246403</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>30254</xdr:colOff>
+      <xdr:colOff>49304</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>62864</xdr:rowOff>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1208,10 +1265,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2951254" y="0"/>
-          <a:ext cx="6807201" cy="481964"/>
-          <a:chOff x="-12700" y="0"/>
-          <a:chExt cx="6807199" cy="481963"/>
+          <a:off x="2932203" y="-1"/>
+          <a:ext cx="6845302" cy="481966"/>
+          <a:chOff x="-19050" y="0"/>
+          <a:chExt cx="6845300" cy="481965"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1221,8 +1278,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="0"/>
-            <a:ext cx="6781801" cy="481964"/>
+            <a:off x="12699" y="-1"/>
+            <a:ext cx="6781802" cy="481966"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1252,8 +1309,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-12701" y="93472"/>
-            <a:ext cx="6807201" cy="295020"/>
+            <a:off x="-19051" y="93473"/>
+            <a:ext cx="6845302" cy="295018"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1324,13 +1381,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>326837</xdr:colOff>
+      <xdr:colOff>307785</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>347630</xdr:rowOff>
+      <xdr:rowOff>238853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>150017</xdr:rowOff>
     </xdr:to>
@@ -1341,10 +1398,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1012637" y="2166905"/>
-          <a:ext cx="5851714" cy="2402713"/>
-          <a:chOff x="-12699" y="-102425"/>
-          <a:chExt cx="5851712" cy="2402712"/>
+          <a:off x="993585" y="2058128"/>
+          <a:ext cx="5889816" cy="2511490"/>
+          <a:chOff x="-19051" y="-108776"/>
+          <a:chExt cx="5889814" cy="2511488"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1354,8 +1411,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="5826313" cy="2300287"/>
+            <a:off x="12698" y="102424"/>
+            <a:ext cx="5826315" cy="2300289"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1387,8 +1444,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-12700" y="-102426"/>
-            <a:ext cx="5851713" cy="1667890"/>
+            <a:off x="-19052" y="-108777"/>
+            <a:ext cx="5889815" cy="1667888"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1663,13 +1720,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:colOff>914398</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>394064</xdr:rowOff>
+      <xdr:rowOff>96692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>513601</xdr:colOff>
+      <xdr:colOff>532651</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>115013</xdr:rowOff>
     </xdr:to>
@@ -1680,10 +1737,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7766049" y="1813289"/>
-          <a:ext cx="2475753" cy="5121625"/>
-          <a:chOff x="-12700" y="-291020"/>
-          <a:chExt cx="2475751" cy="5121624"/>
+          <a:off x="7746998" y="1515917"/>
+          <a:ext cx="2513854" cy="5418997"/>
+          <a:chOff x="-19051" y="-297371"/>
+          <a:chExt cx="2513852" cy="5418995"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1693,8 +1750,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="0"/>
-            <a:ext cx="2450353" cy="4830604"/>
+            <a:off x="12698" y="291020"/>
+            <a:ext cx="2450354" cy="4830605"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1726,8 +1783,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-12701" y="-291021"/>
-            <a:ext cx="2475753" cy="4559682"/>
+            <a:off x="-19052" y="-297372"/>
+            <a:ext cx="2513854" cy="4559680"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3469,7 +3526,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3587,16 +3644,19 @@
       <c r="D12" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
       <c r="B13" t="s" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="20"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
@@ -3604,6 +3664,7 @@
       <c r="D14" t="s" s="5">
         <v>8</v>
       </c>
+      <c r="E14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3613,7 +3674,8 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'書き出しの概要'!R1C1" tooltip="" display="書き出しの概要"/>
     <hyperlink ref="D10" location="'単体テスト仕様書'!R1C1" tooltip="" display="単体テスト仕様書"/>
-    <hyperlink ref="D12" location="'記入例'!R1C1" tooltip="" display="記入例"/>
+    <hyperlink ref="D12" location="'単体テスト仕様書'!R1C1" tooltip="" display="単体テスト仕様書"/>
+    <hyperlink ref="D14" location="'記入例'!R1C1" tooltip="" display="記入例"/>
     <hyperlink ref="D12" location="'単体テスト仕様書'!R1C1" tooltip="" display="単体テスト仕様書"/>
     <hyperlink ref="D14" location="'記入例'!R1C1" tooltip="" display="記入例"/>
   </hyperlinks>
@@ -3627,7 +3689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4121,8 +4183,312 @@
       <c r="H24" s="45"/>
       <c r="I24" s="59"/>
     </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="50">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s" s="55">
+        <v>46</v>
+      </c>
+      <c r="C25" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D25" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="50">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s" s="55">
+        <v>47</v>
+      </c>
+      <c r="C26" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D26" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="50">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s" s="55">
+        <v>48</v>
+      </c>
+      <c r="C27" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D27" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="50">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s" s="55">
+        <v>49</v>
+      </c>
+      <c r="C28" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D28" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="50">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s" s="55">
+        <v>50</v>
+      </c>
+      <c r="C29" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D29" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="50">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s" s="55">
+        <v>51</v>
+      </c>
+      <c r="C30" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D30" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="50">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s" s="55">
+        <v>52</v>
+      </c>
+      <c r="C31" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D31" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="50">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s" s="55">
+        <v>53</v>
+      </c>
+      <c r="C32" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D32" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="50">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s" s="55">
+        <v>54</v>
+      </c>
+      <c r="C33" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D33" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="50">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s" s="55">
+        <v>55</v>
+      </c>
+      <c r="C34" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D34" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="50">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s" s="55">
+        <v>56</v>
+      </c>
+      <c r="C35" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D35" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="50">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s" s="55">
+        <v>57</v>
+      </c>
+      <c r="C36" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D36" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="50">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s" s="62">
+        <v>58</v>
+      </c>
+      <c r="C37" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D37" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="50">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s" s="55">
+        <v>59</v>
+      </c>
+      <c r="C38" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D38" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="61"/>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="50">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s" s="55">
+        <v>60</v>
+      </c>
+      <c r="C39" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D39" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="61"/>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="50">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s" s="55">
+        <v>61</v>
+      </c>
+      <c r="C40" s="51">
+        <v>44188</v>
+      </c>
+      <c r="D40" t="s" s="41">
+        <v>11</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="61"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="34">
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -4141,6 +4507,22 @@
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4159,10 +4541,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="60" customWidth="1"/>
-    <col min="2" max="2" width="80.6719" style="60" customWidth="1"/>
-    <col min="3" max="9" width="12.6719" style="60" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="60" customWidth="1"/>
+    <col min="1" max="1" width="9" style="63" customWidth="1"/>
+    <col min="2" max="2" width="80.6719" style="63" customWidth="1"/>
+    <col min="3" max="9" width="12.6719" style="63" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -4175,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s" s="30">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s" s="29">
         <v>12</v>
@@ -4215,7 +4597,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s" s="41">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="33"/>
@@ -4264,13 +4646,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s" s="41">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C7" s="51">
         <v>43810</v>
       </c>
       <c r="D7" t="s" s="41">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s" s="41">
         <v>24</v>
@@ -4285,13 +4667,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s" s="55">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C8" s="51">
         <v>43810</v>
       </c>
       <c r="D8" t="s" s="41">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s" s="41">
         <v>24</v>
@@ -4306,13 +4688,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="55">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C9" s="51">
         <v>43810</v>
       </c>
       <c r="D9" t="s" s="41">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s" s="41">
         <v>24</v>
@@ -4326,10 +4708,10 @@
       <c r="A10" s="50">
         <v>4</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="52"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
@@ -4339,10 +4721,10 @@
       <c r="A11" s="50">
         <v>5</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="52"/>
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
@@ -4352,10 +4734,10 @@
       <c r="A12" s="50">
         <v>6</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="52"/>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
@@ -4365,10 +4747,10 @@
       <c r="A13" s="50">
         <v>7</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="52"/>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
@@ -4378,10 +4760,10 @@
       <c r="A14" s="50">
         <v>8</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="52"/>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
@@ -4391,10 +4773,10 @@
       <c r="A15" s="50">
         <v>9</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="52"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -4404,10 +4786,10 @@
       <c r="A16" s="50">
         <v>10</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="52"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
@@ -4417,10 +4799,10 @@
       <c r="A17" s="50">
         <v>11</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="52"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -4430,10 +4812,10 @@
       <c r="A18" s="50">
         <v>12</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="52"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -4443,10 +4825,10 @@
       <c r="A19" s="50">
         <v>13</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="52"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -4456,10 +4838,10 @@
       <c r="A20" s="50">
         <v>14</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="52"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -4469,10 +4851,10 @@
       <c r="A21" s="50">
         <v>15</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="52"/>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -4482,10 +4864,10 @@
       <c r="A22" s="50">
         <v>16</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="52"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
@@ -4495,10 +4877,10 @@
       <c r="A23" s="50">
         <v>17</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="52"/>
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
@@ -4508,10 +4890,10 @@
       <c r="A24" s="50">
         <v>18</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="52"/>
       <c r="G24" s="53"/>
       <c r="H24" s="53"/>
@@ -4521,10 +4903,10 @@
       <c r="A25" s="50">
         <v>19</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="52"/>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -4534,10 +4916,10 @@
       <c r="A26" s="50">
         <v>20</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="52"/>
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
@@ -4547,10 +4929,10 @@
       <c r="A27" s="50">
         <v>21</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="52"/>
       <c r="G27" s="53"/>
       <c r="H27" s="53"/>
@@ -4560,10 +4942,10 @@
       <c r="A28" s="50">
         <v>22</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="52"/>
       <c r="G28" s="53"/>
       <c r="H28" s="53"/>
@@ -4573,10 +4955,10 @@
       <c r="A29" s="50">
         <v>23</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="52"/>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
@@ -4586,10 +4968,10 @@
       <c r="A30" s="50">
         <v>24</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="52"/>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
@@ -4599,10 +4981,10 @@
       <c r="A31" s="50">
         <v>25</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="52"/>
       <c r="G31" s="53"/>
       <c r="H31" s="53"/>
@@ -4612,10 +4994,10 @@
       <c r="A32" s="50">
         <v>26</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="52"/>
       <c r="G32" s="53"/>
       <c r="H32" s="53"/>
@@ -4625,10 +5007,10 @@
       <c r="A33" s="50">
         <v>27</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="52"/>
       <c r="G33" s="53"/>
       <c r="H33" s="53"/>
@@ -4638,10 +5020,10 @@
       <c r="A34" s="50">
         <v>28</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="52"/>
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
@@ -4651,10 +5033,10 @@
       <c r="A35" s="50">
         <v>29</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
       <c r="F35" s="52"/>
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
@@ -4664,10 +5046,10 @@
       <c r="A36" s="50">
         <v>30</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="52"/>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK06002_ユーザー登録・編集.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK06002_ユーザー登録・編集.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -182,7 +182,10 @@
     <t>登録の際、サイト情報の値が全て入力されていない場合、エラーメッセージを出力する</t>
   </si>
   <si>
-    <t>登録の際、サイト情報の入社時間より退社時間が遅い場合、エラーメッセージを出力する</t>
+    <t>登録の際、サイト情報の出社時間より退社時間が遅い場合、エラーメッセージを出力する</t>
+  </si>
+  <si>
+    <t>エラーメッセージが出力されない</t>
   </si>
   <si>
     <t>エラーがない場合、site_infoテーブルに値を登録する</t>
@@ -194,13 +197,16 @@
     <t>更新の際、サイト情報の値が全て入力されていない場合、エラーメッセージを出力する</t>
   </si>
   <si>
-    <t>更新の際、サイト情報の入社時間より退社時間が遅い場合、エラーメッセージを出力する</t>
+    <t>更新の際、サイト情報の出社時間より退社時間が遅い場合、エラーメッセージを出力する</t>
+  </si>
+  <si>
+    <t>登録されてしまう</t>
   </si>
   <si>
     <t>エラーがない場合、site_infoテーブルに値を更新する</t>
   </si>
   <si>
-    <t>ユニット情報は片方に値が登録されていたら、エラーメッセージを出力する</t>
+    <t>ユニット情報は片方に値が入力されていたら、エラーメッセージを出力する</t>
   </si>
   <si>
     <t>社員番号で検索した場合、ユニット情報のプルダウンに値がセットされている</t>
@@ -707,104 +713,104 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
@@ -3716,776 +3722,816 @@
       <c r="H1" t="s" s="29">
         <v>12</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" t="s" s="30">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="F2" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="34">
         <v>44160</v>
       </c>
       <c r="H2" t="s" s="29">
         <v>14</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="34">
+        <v>44190</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="40">
+      <c r="A4" t="s" s="39">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="41">
+      <c r="B4" t="s" s="40">
         <v>16</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="46"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="40">
+      <c r="A6" t="s" s="39">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="40">
+      <c r="B6" t="s" s="39">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="40">
+      <c r="C6" t="s" s="39">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="40">
+      <c r="D6" t="s" s="39">
         <v>20</v>
       </c>
-      <c r="E6" t="s" s="40">
+      <c r="E6" t="s" s="39">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="47">
+      <c r="F6" t="s" s="46">
         <v>22</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="50">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="41">
+      <c r="B7" t="s" s="40">
         <v>23</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="50">
         <v>44162</v>
       </c>
-      <c r="D7" t="s" s="41">
+      <c r="D7" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E7" t="s" s="41">
+      <c r="E7" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="50">
+      <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" t="s" s="55">
+      <c r="B8" t="s" s="54">
         <v>25</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="50">
         <v>44162</v>
       </c>
-      <c r="D8" t="s" s="41">
+      <c r="D8" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E8" t="s" s="41">
+      <c r="E8" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="50">
+      <c r="A9" s="49">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="55">
+      <c r="B9" t="s" s="54">
         <v>26</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="50">
         <v>44162</v>
       </c>
-      <c r="D9" t="s" s="41">
+      <c r="D9" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E9" t="s" s="41">
+      <c r="E9" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="50">
+      <c r="A10" s="49">
         <v>4</v>
       </c>
-      <c r="B10" t="s" s="56">
+      <c r="B10" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="50">
         <v>44162</v>
       </c>
-      <c r="D10" t="s" s="41">
+      <c r="D10" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E10" t="s" s="41">
+      <c r="E10" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="50">
+      <c r="A11" s="49">
         <v>5</v>
       </c>
-      <c r="B11" t="s" s="57">
+      <c r="B11" t="s" s="56">
         <v>28</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="50">
         <v>44162</v>
       </c>
-      <c r="D11" t="s" s="41">
+      <c r="D11" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E11" t="s" s="41">
+      <c r="E11" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="50">
+      <c r="A12" s="49">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="55">
+      <c r="B12" t="s" s="54">
         <v>29</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="50">
         <v>44162</v>
       </c>
-      <c r="D12" t="s" s="41">
+      <c r="D12" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E12" t="s" s="41">
+      <c r="E12" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" ht="29" customHeight="1">
-      <c r="A13" s="50">
+      <c r="A13" s="49">
         <v>7</v>
       </c>
-      <c r="B13" t="s" s="55">
+      <c r="B13" t="s" s="54">
         <v>30</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="50">
         <v>44162</v>
       </c>
-      <c r="D13" t="s" s="41">
+      <c r="D13" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E13" t="s" s="55">
+      <c r="E13" t="s" s="54">
         <v>31</v>
       </c>
-      <c r="F13" t="s" s="58">
+      <c r="F13" t="s" s="57">
         <v>32</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="59"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="50">
+      <c r="A14" s="49">
         <v>8</v>
       </c>
-      <c r="B14" t="s" s="55">
+      <c r="B14" t="s" s="54">
         <v>33</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="50">
         <v>44162</v>
       </c>
-      <c r="D14" t="s" s="41">
+      <c r="D14" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E14" t="s" s="41">
+      <c r="E14" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="59"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" ht="29" customHeight="1">
-      <c r="A15" s="50">
+      <c r="A15" s="49">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="55">
+      <c r="B15" t="s" s="54">
         <v>34</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="50">
         <v>44162</v>
       </c>
-      <c r="D15" t="s" s="41">
+      <c r="D15" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E15" t="s" s="55">
+      <c r="E15" t="s" s="54">
         <v>31</v>
       </c>
-      <c r="F15" t="s" s="58">
+      <c r="F15" t="s" s="57">
         <v>35</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="59"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" ht="29" customHeight="1">
-      <c r="A16" s="50">
+      <c r="A16" s="49">
         <v>10</v>
       </c>
-      <c r="B16" t="s" s="56">
+      <c r="B16" t="s" s="55">
         <v>36</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="50">
         <v>44162</v>
       </c>
-      <c r="D16" t="s" s="41">
+      <c r="D16" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E16" t="s" s="55">
+      <c r="E16" t="s" s="54">
         <v>31</v>
       </c>
-      <c r="F16" t="s" s="58">
+      <c r="F16" t="s" s="57">
         <v>37</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="59"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" ht="29" customHeight="1">
-      <c r="A17" s="50">
+      <c r="A17" s="49">
         <v>11</v>
       </c>
-      <c r="B17" t="s" s="57">
+      <c r="B17" t="s" s="56">
         <v>38</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="50">
         <v>44162</v>
       </c>
-      <c r="D17" t="s" s="41">
+      <c r="D17" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E17" t="s" s="55">
+      <c r="E17" t="s" s="54">
         <v>31</v>
       </c>
-      <c r="F17" t="s" s="58">
+      <c r="F17" t="s" s="57">
         <v>37</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="59"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" ht="29" customHeight="1">
-      <c r="A18" s="50">
+      <c r="A18" s="49">
         <v>12</v>
       </c>
-      <c r="B18" t="s" s="55">
+      <c r="B18" t="s" s="54">
         <v>39</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="50">
         <v>44162</v>
       </c>
-      <c r="D18" t="s" s="41">
+      <c r="D18" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E18" t="s" s="55">
+      <c r="E18" t="s" s="54">
         <v>31</v>
       </c>
-      <c r="F18" t="s" s="58">
+      <c r="F18" t="s" s="57">
         <v>37</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="59"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="50">
+      <c r="A19" s="49">
         <v>13</v>
       </c>
-      <c r="B19" t="s" s="55">
+      <c r="B19" t="s" s="54">
         <v>40</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="50">
         <v>44162</v>
       </c>
-      <c r="D19" t="s" s="41">
+      <c r="D19" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E19" t="s" s="41">
+      <c r="E19" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="59"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="50">
+      <c r="A20" s="49">
         <v>14</v>
       </c>
-      <c r="B20" t="s" s="55">
+      <c r="B20" t="s" s="54">
         <v>41</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="50">
         <v>44162</v>
       </c>
-      <c r="D20" t="s" s="41">
+      <c r="D20" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E20" t="s" s="41">
+      <c r="E20" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="59"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="50">
+      <c r="A21" s="49">
         <v>15</v>
       </c>
-      <c r="B21" t="s" s="55">
+      <c r="B21" t="s" s="54">
         <v>42</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <v>44162</v>
       </c>
-      <c r="D21" t="s" s="41">
+      <c r="D21" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E21" t="s" s="41">
+      <c r="E21" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="59"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="50">
+      <c r="A22" s="49">
         <v>16</v>
       </c>
-      <c r="B22" t="s" s="55">
+      <c r="B22" t="s" s="54">
         <v>43</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <v>44162</v>
       </c>
-      <c r="D22" t="s" s="41">
+      <c r="D22" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E22" t="s" s="41">
+      <c r="E22" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="59"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="50">
+      <c r="A23" s="49">
         <v>17</v>
       </c>
-      <c r="B23" t="s" s="55">
+      <c r="B23" t="s" s="54">
         <v>44</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="50">
         <v>44162</v>
       </c>
-      <c r="D23" t="s" s="41">
+      <c r="D23" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E23" t="s" s="41">
+      <c r="E23" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="59"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="50">
+      <c r="A24" s="49">
         <v>18</v>
       </c>
-      <c r="B24" t="s" s="55">
+      <c r="B24" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="50">
         <v>44162</v>
       </c>
-      <c r="D24" t="s" s="41">
+      <c r="D24" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E24" t="s" s="41">
+      <c r="E24" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="59"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="50">
+      <c r="A25" s="49">
         <v>19</v>
       </c>
-      <c r="B25" t="s" s="55">
+      <c r="B25" t="s" s="54">
         <v>46</v>
       </c>
-      <c r="C25" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D25" t="s" s="41">
+      <c r="C25" s="50">
+        <v>44189</v>
+      </c>
+      <c r="D25" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
+      <c r="E25" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="50">
+      <c r="A26" s="49">
         <v>20</v>
       </c>
-      <c r="B26" t="s" s="55">
+      <c r="B26" t="s" s="54">
         <v>47</v>
       </c>
-      <c r="C26" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D26" t="s" s="41">
+      <c r="C26" s="50">
+        <v>44189</v>
+      </c>
+      <c r="D26" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
+      <c r="E26" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="50">
+      <c r="A27" s="49">
         <v>21</v>
       </c>
-      <c r="B27" t="s" s="55">
+      <c r="B27" t="s" s="54">
         <v>48</v>
       </c>
-      <c r="C27" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D27" t="s" s="41">
+      <c r="C27" s="50">
+        <v>44189</v>
+      </c>
+      <c r="D27" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
+      <c r="E27" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F27" s="51"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="50">
+      <c r="A28" s="49">
         <v>22</v>
       </c>
-      <c r="B28" t="s" s="55">
+      <c r="B28" t="s" s="54">
         <v>49</v>
       </c>
-      <c r="C28" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D28" t="s" s="41">
+      <c r="C28" s="50">
+        <v>44189</v>
+      </c>
+      <c r="D28" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="50">
+      <c r="E28" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F28" s="51"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" ht="29" customHeight="1">
+      <c r="A29" s="49">
         <v>23</v>
       </c>
-      <c r="B29" t="s" s="55">
+      <c r="B29" t="s" s="54">
         <v>50</v>
       </c>
-      <c r="C29" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D29" t="s" s="41">
+      <c r="C29" s="50">
+        <v>44190</v>
+      </c>
+      <c r="D29" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
+      <c r="E29" t="s" s="54">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s" s="57">
+        <v>51</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="50">
+      <c r="A30" s="49">
         <v>24</v>
       </c>
-      <c r="B30" t="s" s="55">
-        <v>51</v>
-      </c>
-      <c r="C30" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D30" t="s" s="41">
+      <c r="B30" t="s" s="54">
+        <v>52</v>
+      </c>
+      <c r="C30" s="50">
+        <v>44189</v>
+      </c>
+      <c r="D30" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
+      <c r="E30" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F30" s="51"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="50">
+      <c r="A31" s="49">
         <v>25</v>
       </c>
-      <c r="B31" t="s" s="55">
-        <v>52</v>
-      </c>
-      <c r="C31" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D31" t="s" s="41">
+      <c r="B31" t="s" s="54">
+        <v>53</v>
+      </c>
+      <c r="C31" s="50">
+        <v>44189</v>
+      </c>
+      <c r="D31" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
+      <c r="E31" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="50">
+      <c r="A32" s="49">
         <v>26</v>
       </c>
-      <c r="B32" t="s" s="55">
-        <v>53</v>
-      </c>
-      <c r="C32" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D32" t="s" s="41">
+      <c r="B32" t="s" s="54">
+        <v>54</v>
+      </c>
+      <c r="C32" s="50">
+        <v>44189</v>
+      </c>
+      <c r="D32" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="50">
+      <c r="E32" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F32" s="51"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
+    </row>
+    <row r="33" ht="29" customHeight="1">
+      <c r="A33" s="49">
         <v>27</v>
       </c>
-      <c r="B33" t="s" s="55">
-        <v>54</v>
-      </c>
-      <c r="C33" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D33" t="s" s="41">
+      <c r="B33" t="s" s="54">
+        <v>55</v>
+      </c>
+      <c r="C33" s="50">
+        <v>44190</v>
+      </c>
+      <c r="D33" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
+      <c r="E33" t="s" s="54">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s" s="57">
+        <v>56</v>
+      </c>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
     </row>
     <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="50">
+      <c r="A34" s="49">
         <v>28</v>
       </c>
-      <c r="B34" t="s" s="55">
-        <v>55</v>
-      </c>
-      <c r="C34" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D34" t="s" s="41">
+      <c r="B34" t="s" s="54">
+        <v>57</v>
+      </c>
+      <c r="C34" s="50">
+        <v>44189</v>
+      </c>
+      <c r="D34" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
+      <c r="E34" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F34" s="51"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="50">
+      <c r="A35" s="49">
         <v>29</v>
       </c>
-      <c r="B35" t="s" s="55">
-        <v>56</v>
-      </c>
-      <c r="C35" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D35" t="s" s="41">
+      <c r="B35" t="s" s="54">
+        <v>58</v>
+      </c>
+      <c r="C35" s="50">
+        <v>44190</v>
+      </c>
+      <c r="D35" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
+      <c r="E35" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="50">
+      <c r="A36" s="49">
         <v>30</v>
       </c>
-      <c r="B36" t="s" s="55">
-        <v>57</v>
-      </c>
-      <c r="C36" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D36" t="s" s="41">
+      <c r="B36" t="s" s="54">
+        <v>59</v>
+      </c>
+      <c r="C36" s="50">
+        <v>44190</v>
+      </c>
+      <c r="D36" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="61"/>
+      <c r="E36" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="50">
+      <c r="A37" s="49">
         <v>31</v>
       </c>
-      <c r="B37" t="s" s="62">
-        <v>58</v>
-      </c>
-      <c r="C37" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D37" t="s" s="41">
+      <c r="B37" t="s" s="61">
+        <v>60</v>
+      </c>
+      <c r="C37" s="50">
+        <v>44190</v>
+      </c>
+      <c r="D37" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="61"/>
+      <c r="E37" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
     </row>
     <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="50">
+      <c r="A38" s="49">
         <v>32</v>
       </c>
-      <c r="B38" t="s" s="55">
-        <v>59</v>
-      </c>
-      <c r="C38" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D38" t="s" s="41">
+      <c r="B38" t="s" s="54">
+        <v>61</v>
+      </c>
+      <c r="C38" s="50">
+        <v>44190</v>
+      </c>
+      <c r="D38" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="61"/>
+      <c r="E38" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F38" s="51"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="50">
+      <c r="A39" s="49">
         <v>33</v>
       </c>
-      <c r="B39" t="s" s="55">
-        <v>60</v>
-      </c>
-      <c r="C39" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D39" t="s" s="41">
+      <c r="B39" t="s" s="54">
+        <v>62</v>
+      </c>
+      <c r="C39" s="50">
+        <v>44190</v>
+      </c>
+      <c r="D39" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="61"/>
+      <c r="E39" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="50">
+      <c r="A40" s="49">
         <v>34</v>
       </c>
-      <c r="B40" t="s" s="55">
-        <v>61</v>
-      </c>
-      <c r="C40" s="51">
-        <v>44188</v>
-      </c>
-      <c r="D40" t="s" s="41">
+      <c r="B40" t="s" s="54">
+        <v>63</v>
+      </c>
+      <c r="C40" s="50">
+        <v>44190</v>
+      </c>
+      <c r="D40" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
+      <c r="E40" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="F40" s="51"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4541,10 +4587,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="63" customWidth="1"/>
-    <col min="2" max="2" width="80.6719" style="63" customWidth="1"/>
-    <col min="3" max="9" width="12.6719" style="63" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="63" customWidth="1"/>
+    <col min="1" max="1" width="9" style="62" customWidth="1"/>
+    <col min="2" max="2" width="80.6719" style="62" customWidth="1"/>
+    <col min="3" max="9" width="12.6719" style="62" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -4557,503 +4603,503 @@
         <v>10</v>
       </c>
       <c r="G1" t="s" s="30">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s" s="29">
         <v>12</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="F2" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="34">
         <v>43810</v>
       </c>
       <c r="H2" t="s" s="29">
         <v>14</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="40">
+      <c r="A4" t="s" s="39">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="41">
-        <v>63</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="43"/>
+      <c r="B4" t="s" s="40">
+        <v>65</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="46"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="40">
+      <c r="A6" t="s" s="39">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="40">
+      <c r="B6" t="s" s="39">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="40">
+      <c r="C6" t="s" s="39">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="40">
+      <c r="D6" t="s" s="39">
         <v>20</v>
       </c>
-      <c r="E6" t="s" s="40">
+      <c r="E6" t="s" s="39">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="47">
+      <c r="F6" t="s" s="46">
         <v>22</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="50">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="41">
-        <v>64</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="B7" t="s" s="40">
+        <v>66</v>
+      </c>
+      <c r="C7" s="50">
         <v>43810</v>
       </c>
-      <c r="D7" t="s" s="41">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s" s="41">
+      <c r="D7" t="s" s="40">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="50">
+      <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" t="s" s="55">
-        <v>66</v>
-      </c>
-      <c r="C8" s="51">
+      <c r="B8" t="s" s="54">
+        <v>68</v>
+      </c>
+      <c r="C8" s="50">
         <v>43810</v>
       </c>
-      <c r="D8" t="s" s="41">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s" s="41">
+      <c r="D8" t="s" s="40">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="50">
+      <c r="A9" s="49">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="55">
+      <c r="B9" t="s" s="54">
+        <v>69</v>
+      </c>
+      <c r="C9" s="50">
+        <v>43810</v>
+      </c>
+      <c r="D9" t="s" s="40">
         <v>67</v>
       </c>
-      <c r="C9" s="51">
-        <v>43810</v>
-      </c>
-      <c r="D9" t="s" s="41">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s" s="41">
+      <c r="E9" t="s" s="40">
         <v>24</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="50">
+      <c r="A10" s="49">
         <v>4</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="50">
+      <c r="A11" s="49">
         <v>5</v>
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="50">
+      <c r="A12" s="49">
         <v>6</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="50">
+      <c r="A13" s="49">
         <v>7</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="50">
+      <c r="A14" s="49">
         <v>8</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="50">
+      <c r="A15" s="49">
         <v>9</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="50">
+      <c r="A16" s="49">
         <v>10</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="50">
+      <c r="A17" s="49">
         <v>11</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="50">
+      <c r="A18" s="49">
         <v>12</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="50">
+      <c r="A19" s="49">
         <v>13</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="50">
+      <c r="A20" s="49">
         <v>14</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="50">
+      <c r="A21" s="49">
         <v>15</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="50">
+      <c r="A22" s="49">
         <v>16</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="50">
+      <c r="A23" s="49">
         <v>17</v>
       </c>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="50">
+      <c r="A24" s="49">
         <v>18</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="50">
+      <c r="A25" s="49">
         <v>19</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="50">
+      <c r="A26" s="49">
         <v>20</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="50">
+      <c r="A27" s="49">
         <v>21</v>
       </c>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="50">
+      <c r="A28" s="49">
         <v>22</v>
       </c>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="50">
+      <c r="A29" s="49">
         <v>23</v>
       </c>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="50">
+      <c r="A30" s="49">
         <v>24</v>
       </c>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
       <c r="E30" s="64"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="50">
+      <c r="A31" s="49">
         <v>25</v>
       </c>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="50">
+      <c r="A32" s="49">
         <v>26</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="50">
+      <c r="A33" s="49">
         <v>27</v>
       </c>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
       <c r="D33" s="64"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="50">
+      <c r="A34" s="49">
         <v>28</v>
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="50">
+      <c r="A35" s="49">
         <v>29</v>
       </c>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
       <c r="E35" s="64"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="50">
+      <c r="A36" s="49">
         <v>30</v>
       </c>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
       <c r="E36" s="64"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="30">
